--- a/training.xlsx
+++ b/training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septi\Downloads\lufti\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B82C928-3F12-4C34-9ADB-87C848CB9E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C08258E-9B8F-4AB6-9A35-A813493A038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{E219664B-54A1-4626-B8B4-1F3B4CBCC220}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E219664B-54A1-4626-B8B4-1F3B4CBCC220}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="5" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C09032-81E5-470F-95AC-D17BE9AAC5AC}">
   <dimension ref="A1:A600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A300" sqref="A1:A300"/>
+    <sheetView topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="A600" sqref="A600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6482,9 +6482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC5DE2-A8F4-44D6-873B-633ADC401ED6}">
   <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/training.xlsx
+++ b/training.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septi\Downloads\lufti\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\lda_tembakau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C08258E-9B8F-4AB6-9A35-A813493A038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EF364A-4620-4337-B6CF-B335E90AB001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E219664B-54A1-4626-B8B4-1F3B4CBCC220}"/>
+    <workbookView xWindow="6780" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{E219664B-54A1-4626-B8B4-1F3B4CBCC220}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="19">
   <si>
     <t>lemari_kaca</t>
   </si>
@@ -125,8 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C09032-81E5-470F-95AC-D17BE9AAC5AC}">
-  <dimension ref="A1:A600"/>
+  <dimension ref="A1:A660"/>
   <sheetViews>
-    <sheetView topLeftCell="A563" workbookViewId="0">
-      <selection activeCell="A600" sqref="A600"/>
+    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
+      <selection activeCell="G645" sqref="G645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,6 +3457,306 @@
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6480,9 +6783,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC5DE2-A8F4-44D6-873B-633ADC401ED6}">
-  <dimension ref="A1:C601"/>
+  <dimension ref="A1:C661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A595" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A602" sqref="A602:C661"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13102,6 +13407,666 @@
         <v>868</v>
       </c>
     </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>499</v>
+      </c>
+      <c r="B602" s="1">
+        <v>575</v>
+      </c>
+      <c r="C602" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>510</v>
+      </c>
+      <c r="B603" s="1">
+        <v>583</v>
+      </c>
+      <c r="C603" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>522</v>
+      </c>
+      <c r="B604" s="1">
+        <v>633</v>
+      </c>
+      <c r="C604" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>529</v>
+      </c>
+      <c r="B605" s="1">
+        <v>635</v>
+      </c>
+      <c r="C605" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>529</v>
+      </c>
+      <c r="B606" s="1">
+        <v>641</v>
+      </c>
+      <c r="C606" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>535</v>
+      </c>
+      <c r="B607" s="1">
+        <v>816</v>
+      </c>
+      <c r="C607" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>535</v>
+      </c>
+      <c r="B608" s="1">
+        <v>855</v>
+      </c>
+      <c r="C608" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>536</v>
+      </c>
+      <c r="B609" s="1">
+        <v>939</v>
+      </c>
+      <c r="C609" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>540</v>
+      </c>
+      <c r="B610" s="1">
+        <v>970</v>
+      </c>
+      <c r="C610" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>544</v>
+      </c>
+      <c r="B611" s="1">
+        <v>973</v>
+      </c>
+      <c r="C611" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>341</v>
+      </c>
+      <c r="B612" s="1">
+        <v>89</v>
+      </c>
+      <c r="C612" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>335</v>
+      </c>
+      <c r="B613" s="1">
+        <v>89</v>
+      </c>
+      <c r="C613" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>335</v>
+      </c>
+      <c r="B614" s="1">
+        <v>97</v>
+      </c>
+      <c r="C614" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>335</v>
+      </c>
+      <c r="B615" s="1">
+        <v>107</v>
+      </c>
+      <c r="C615" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>337</v>
+      </c>
+      <c r="B616" s="1">
+        <v>125</v>
+      </c>
+      <c r="C616" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>341</v>
+      </c>
+      <c r="B617" s="1">
+        <v>139</v>
+      </c>
+      <c r="C617" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>341</v>
+      </c>
+      <c r="B618" s="1">
+        <v>144</v>
+      </c>
+      <c r="C618" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>353</v>
+      </c>
+      <c r="B619" s="1">
+        <v>144</v>
+      </c>
+      <c r="C619" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>355</v>
+      </c>
+      <c r="B620" s="1">
+        <v>177</v>
+      </c>
+      <c r="C620" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>355</v>
+      </c>
+      <c r="B621" s="1">
+        <v>179</v>
+      </c>
+      <c r="C621" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>497</v>
+      </c>
+      <c r="B622" s="1">
+        <v>890</v>
+      </c>
+      <c r="C622" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>523</v>
+      </c>
+      <c r="B623" s="1">
+        <v>915</v>
+      </c>
+      <c r="C623" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>523</v>
+      </c>
+      <c r="B624" s="1">
+        <v>915</v>
+      </c>
+      <c r="C624" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>523</v>
+      </c>
+      <c r="B625" s="1">
+        <v>950</v>
+      </c>
+      <c r="C625" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>534</v>
+      </c>
+      <c r="B626" s="1">
+        <v>954</v>
+      </c>
+      <c r="C626" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>534</v>
+      </c>
+      <c r="B627" s="1">
+        <v>959</v>
+      </c>
+      <c r="C627" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>565</v>
+      </c>
+      <c r="B628" s="1">
+        <v>961</v>
+      </c>
+      <c r="C628" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>567</v>
+      </c>
+      <c r="B629" s="1">
+        <v>968</v>
+      </c>
+      <c r="C629" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>572</v>
+      </c>
+      <c r="B630" s="1">
+        <v>968</v>
+      </c>
+      <c r="C630" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>577</v>
+      </c>
+      <c r="B631" s="1">
+        <v>973</v>
+      </c>
+      <c r="C631" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>399</v>
+      </c>
+      <c r="B632" s="1">
+        <v>700</v>
+      </c>
+      <c r="C632" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>412</v>
+      </c>
+      <c r="B633" s="1">
+        <v>712</v>
+      </c>
+      <c r="C633" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>422</v>
+      </c>
+      <c r="B634" s="1">
+        <v>725</v>
+      </c>
+      <c r="C634" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>430</v>
+      </c>
+      <c r="B635" s="1">
+        <v>821</v>
+      </c>
+      <c r="C635" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>430</v>
+      </c>
+      <c r="B636" s="1">
+        <v>825</v>
+      </c>
+      <c r="C636" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>430</v>
+      </c>
+      <c r="B637" s="1">
+        <v>825</v>
+      </c>
+      <c r="C637" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>449</v>
+      </c>
+      <c r="B638" s="1">
+        <v>936</v>
+      </c>
+      <c r="C638" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>457</v>
+      </c>
+      <c r="B639" s="1">
+        <v>936</v>
+      </c>
+      <c r="C639" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>463</v>
+      </c>
+      <c r="B640" s="1">
+        <v>953</v>
+      </c>
+      <c r="C640" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>468</v>
+      </c>
+      <c r="B641" s="1">
+        <v>955</v>
+      </c>
+      <c r="C641" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>400</v>
+      </c>
+      <c r="B642" s="1">
+        <v>863</v>
+      </c>
+      <c r="C642" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>330</v>
+      </c>
+      <c r="B643" s="1">
+        <v>927</v>
+      </c>
+      <c r="C643" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>332</v>
+      </c>
+      <c r="B644" s="1">
+        <v>927</v>
+      </c>
+      <c r="C644" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>332</v>
+      </c>
+      <c r="B645" s="1">
+        <v>935</v>
+      </c>
+      <c r="C645" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>335</v>
+      </c>
+      <c r="B646" s="1">
+        <v>937</v>
+      </c>
+      <c r="C646" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>338</v>
+      </c>
+      <c r="B647" s="1">
+        <v>939</v>
+      </c>
+      <c r="C647" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>339</v>
+      </c>
+      <c r="B648" s="1">
+        <v>942</v>
+      </c>
+      <c r="C648" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>345</v>
+      </c>
+      <c r="B649" s="1">
+        <v>947</v>
+      </c>
+      <c r="C649" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>349</v>
+      </c>
+      <c r="B650" s="1">
+        <v>947</v>
+      </c>
+      <c r="C650" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>352</v>
+      </c>
+      <c r="B651" s="1">
+        <v>965</v>
+      </c>
+      <c r="C651" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>400</v>
+      </c>
+      <c r="B652" s="1">
+        <v>872</v>
+      </c>
+      <c r="C652" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>300</v>
+      </c>
+      <c r="B653" s="1">
+        <v>927</v>
+      </c>
+      <c r="C653" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>322</v>
+      </c>
+      <c r="B654" s="1">
+        <v>927</v>
+      </c>
+      <c r="C654" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>327</v>
+      </c>
+      <c r="B655" s="1">
+        <v>934</v>
+      </c>
+      <c r="C655" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>328</v>
+      </c>
+      <c r="B656" s="1">
+        <v>937</v>
+      </c>
+      <c r="C656" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>335</v>
+      </c>
+      <c r="B657" s="1">
+        <v>939</v>
+      </c>
+      <c r="C657" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>339</v>
+      </c>
+      <c r="B658" s="1">
+        <v>942</v>
+      </c>
+      <c r="C658" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>347</v>
+      </c>
+      <c r="B659" s="1">
+        <v>947</v>
+      </c>
+      <c r="C659" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>350</v>
+      </c>
+      <c r="B660" s="1">
+        <v>948</v>
+      </c>
+      <c r="C660" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>355</v>
+      </c>
+      <c r="B661" s="1">
+        <v>948</v>
+      </c>
+      <c r="C661" s="1">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
